--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.326153333333333</v>
+        <v>5.570639666666668</v>
       </c>
       <c r="H2">
-        <v>3.97846</v>
+        <v>16.711919</v>
       </c>
       <c r="I2">
-        <v>0.01594171638670932</v>
+        <v>0.06371389580191485</v>
       </c>
       <c r="J2">
-        <v>0.01594171638670932</v>
+        <v>0.06371389580191483</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N2">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q2">
-        <v>8.124631097197778</v>
+        <v>50.70281655110856</v>
       </c>
       <c r="R2">
-        <v>73.12167987478</v>
+        <v>456.325348959977</v>
       </c>
       <c r="S2">
-        <v>0.001723457074370635</v>
+        <v>0.009722836774366949</v>
       </c>
       <c r="T2">
-        <v>0.001723457074370635</v>
+        <v>0.009722836774366948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.326153333333333</v>
+        <v>5.570639666666668</v>
       </c>
       <c r="H3">
-        <v>3.97846</v>
+        <v>16.711919</v>
       </c>
       <c r="I3">
-        <v>0.01594171638670932</v>
+        <v>0.06371389580191485</v>
       </c>
       <c r="J3">
-        <v>0.01594171638670932</v>
+        <v>0.06371389580191483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P3">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q3">
-        <v>47.39323058186223</v>
+        <v>199.0800034768238</v>
       </c>
       <c r="R3">
-        <v>426.53907523676</v>
+        <v>1791.720031291414</v>
       </c>
       <c r="S3">
-        <v>0.01005340396953667</v>
+        <v>0.03817583539751585</v>
       </c>
       <c r="T3">
-        <v>0.01005340396953667</v>
+        <v>0.03817583539751584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.326153333333333</v>
+        <v>5.570639666666668</v>
       </c>
       <c r="H4">
-        <v>3.97846</v>
+        <v>16.711919</v>
       </c>
       <c r="I4">
-        <v>0.01594171638670932</v>
+        <v>0.06371389580191485</v>
       </c>
       <c r="J4">
-        <v>0.01594171638670932</v>
+        <v>0.06371389580191483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q4">
-        <v>19.63374297895778</v>
+        <v>82.47350038234924</v>
       </c>
       <c r="R4">
-        <v>176.70368681062</v>
+        <v>742.2615034411431</v>
       </c>
       <c r="S4">
-        <v>0.004164855342802016</v>
+        <v>0.01581522363003204</v>
       </c>
       <c r="T4">
-        <v>0.004164855342802016</v>
+        <v>0.01581522363003204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>147.216877</v>
       </c>
       <c r="I5">
-        <v>0.5898990314018667</v>
+        <v>0.5612617414829089</v>
       </c>
       <c r="J5">
-        <v>0.5898990314018667</v>
+        <v>0.5612617414829089</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N5">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q5">
-        <v>300.6396487350735</v>
+        <v>446.6459122832101</v>
       </c>
       <c r="R5">
-        <v>2705.756838615661</v>
+        <v>4019.813210548891</v>
       </c>
       <c r="S5">
-        <v>0.06377391456302231</v>
+        <v>0.08564938984583732</v>
       </c>
       <c r="T5">
-        <v>0.06377391456302231</v>
+        <v>0.08564938984583732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>147.216877</v>
       </c>
       <c r="I6">
-        <v>0.5898990314018667</v>
+        <v>0.5612617414829089</v>
       </c>
       <c r="J6">
-        <v>0.5898990314018667</v>
+        <v>0.5612617414829089</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P6">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q6">
         <v>1753.714602434774</v>
@@ -818,10 +818,10 @@
         <v>15783.43142191296</v>
       </c>
       <c r="S6">
-        <v>0.3720109629390748</v>
+        <v>0.3362945490633563</v>
       </c>
       <c r="T6">
-        <v>0.3720109629390749</v>
+        <v>0.3362945490633563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>147.216877</v>
       </c>
       <c r="I7">
-        <v>0.5898990314018667</v>
+        <v>0.5612617414829089</v>
       </c>
       <c r="J7">
-        <v>0.5898990314018667</v>
+        <v>0.5612617414829089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q7">
         <v>726.5168746657856</v>
@@ -880,10 +880,10 @@
         <v>6538.65187199207</v>
       </c>
       <c r="S7">
-        <v>0.1541141538997696</v>
+        <v>0.1393178025737152</v>
       </c>
       <c r="T7">
-        <v>0.1541141538997696</v>
+        <v>0.1393178025737152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>98.367502</v>
       </c>
       <c r="I8">
-        <v>0.3941592522114239</v>
+        <v>0.3750243627151764</v>
       </c>
       <c r="J8">
-        <v>0.3941592522114239</v>
+        <v>0.3750243627151764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N8">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q8">
-        <v>200.8816641873651</v>
+        <v>298.4402574292517</v>
       </c>
       <c r="R8">
-        <v>1807.934977686286</v>
+        <v>2685.962316863266</v>
       </c>
       <c r="S8">
-        <v>0.04261251016978118</v>
+        <v>0.05722928443156134</v>
       </c>
       <c r="T8">
-        <v>0.04261251016978118</v>
+        <v>0.05722928443156134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>98.367502</v>
       </c>
       <c r="I9">
-        <v>0.3941592522114239</v>
+        <v>0.3750243627151764</v>
       </c>
       <c r="J9">
-        <v>0.3941592522114239</v>
+        <v>0.3750243627151764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P9">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q9">
         <v>1171.798561264357</v>
@@ -1004,10 +1004,10 @@
         <v>10546.18705137921</v>
       </c>
       <c r="S9">
-        <v>0.2485706115130493</v>
+        <v>0.2247055867621672</v>
       </c>
       <c r="T9">
-        <v>0.2485706115130493</v>
+        <v>0.2247055867621672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>98.367502</v>
       </c>
       <c r="I10">
-        <v>0.3941592522114239</v>
+        <v>0.3750243627151764</v>
       </c>
       <c r="J10">
-        <v>0.3941592522114239</v>
+        <v>0.3750243627151764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q10">
         <v>485.4446825530771</v>
@@ -1066,10 +1066,10 @@
         <v>4369.002142977694</v>
       </c>
       <c r="S10">
-        <v>0.1029761305285935</v>
+        <v>0.09308949152144788</v>
       </c>
       <c r="T10">
-        <v>0.1029761305285935</v>
+        <v>0.09308949152144788</v>
       </c>
     </row>
   </sheetData>
